--- a/data/qualys-light - Copia.xlsx
+++ b/data/qualys-light - Copia.xlsx
@@ -321,13 +321,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,11 +412,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -741,7 +747,7 @@
     <col min="2" max="2" style="13" width="32.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="13" width="26.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="13" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="60.71928571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
@@ -793,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>38.879</v>
       </c>
@@ -832,7 +838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>520.001</v>
       </c>
@@ -871,7 +877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>354.404</v>
       </c>
@@ -910,7 +916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>710.678</v>
       </c>
@@ -949,7 +955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>240.798</v>
       </c>
@@ -988,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>377.733</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>160.191</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>160.192</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>502.587</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>283.442</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4">
         <v>690.972</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4">
         <v>591.335</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4">
         <v>296.086</v>
       </c>
